--- a/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 2020.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 2020.xlsx
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 2020.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>Mat</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>NAMIGTLE</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAHIR</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1055,29 +1046,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920349</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 2020.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 2020.xlsx
@@ -681,16 +681,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>74.36</v>
+      </c>
+      <c r="H2">
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -704,16 +707,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>90.23999999999999</v>
+      </c>
+      <c r="H3">
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -727,16 +733,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H4">
+        <v>7.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -750,16 +759,19 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>84.62</v>
+      </c>
+      <c r="H5">
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -773,16 +785,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>77.14</v>
+      </c>
+      <c r="H6">
+        <v>7.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -796,16 +811,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +891,7 @@
         <v>74.36</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -890,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>92.68000000000001</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="H3">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -942,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>92.31</v>
+        <v>84.62</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -968,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>85.70999999999999</v>
+        <v>77.14</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -994,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>86.11</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
